--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/guide_01_a.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/guide_01_a.xlsx
@@ -72,7 +72,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] They’re getting closer, so be prepared.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] They're getting closer, so be prepared.
 </t>
   </si>
   <si>
